--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -23639,7 +23639,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -27863,7 +27863,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -29879,7 +29879,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -35607,7 +35607,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -37943,7 +37943,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -42519,7 +42519,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Có</t>
         </is>
       </c>
     </row>
@@ -43703,7 +43703,7 @@
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -43927,7 +43927,7 @@
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
@@ -46007,7 +46007,7 @@
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Không</t>
         </is>
       </c>
     </row>
